--- a/Documents/关卡设计.xlsx
+++ b/Documents/关卡设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noAsh\Desktop\自动推箱子模拟器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B7DBED-4392-4145-94CD-50CB98E0B6D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51002E08-7524-4706-9892-DA0F07EF1BAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB934A59-7BB1-411A-AB72-E362C92372E1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>无物体</t>
   </si>
@@ -84,11 +84,87 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>关卡1-4 障碍、多个小人配合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡1-2：不同颜色的箱子、多个小人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AASSSSDSAADDDWWWW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDSSSWWWAA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDDDWWWASSSASDAAAW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAADDDSAAADDDW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡1-4 ：障碍、等待、同步配合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步：你可以给两个机器人输入不同指令，指令会同步运行。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>次序：当两个机器人同时移向同一格，1号机器人会先移动，然后2号机器人会把1号推开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行：输入全部指令！点击运行！剩下的交给机器人吧！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：将箱子推到终点！并让机器人返回出发点！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠：机器人力气很大，可以一次推动多个箱子！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>染色：通过染色地板，可以将黄色箱子变为红色箱子！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色：箱子颜色和终点颜色需要一致，红对红，黄对黄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令：指令W\S\A\D分别对应让机器人上\下\左\右移动一格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待：指令F可以让机器人原地等待1次指令的时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍：灰色障碍无法被推动，只能绕过</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWWADSASAFWDS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFFFDDDDDDDAAAASDDFDAAAAAWW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDSAASDDDDDAAAAWW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWSDWFFFFFWWWWSSSDWWWAAASSSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WFFFFAAASDFFFFFFFWSWWWSSSDD</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -755,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB662B7-9DE0-4300-BDD8-D6133AC8F253}">
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -768,7 +844,7 @@
     <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -781,8 +857,11 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -795,8 +874,11 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -808,6 +890,9 @@
       </c>
       <c r="D3" t="s">
         <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -817,7 +902,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -838,7 +923,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -850,6 +935,9 @@
       </c>
       <c r="D5" t="s">
         <v>7</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -858,12 +946,15 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -873,7 +964,10 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -883,36 +977,87 @@
       <c r="U7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="5"/>
+    <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="32">
+        <v>1</v>
+      </c>
+      <c r="N8" s="32">
+        <v>1</v>
+      </c>
+      <c r="O8" s="32">
+        <v>1</v>
+      </c>
+      <c r="P8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>1</v>
+      </c>
+      <c r="R8" s="32">
+        <v>1</v>
+      </c>
+      <c r="S8" s="32">
+        <v>1</v>
+      </c>
+      <c r="T8" s="32">
+        <v>1</v>
+      </c>
+      <c r="U8" s="32">
+        <v>1</v>
+      </c>
+      <c r="V8" s="32">
+        <v>1</v>
+      </c>
+      <c r="W8" s="32">
+        <v>1</v>
+      </c>
+      <c r="X8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="32">
+        <v>1</v>
+      </c>
+      <c r="N9" s="32">
+        <v>1</v>
+      </c>
+      <c r="O9" s="32">
+        <v>1</v>
+      </c>
+      <c r="P9" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>1</v>
+      </c>
+      <c r="R9" s="32">
+        <v>1</v>
+      </c>
+      <c r="S9" s="32">
+        <v>1</v>
+      </c>
+      <c r="T9" s="32">
+        <v>1</v>
+      </c>
+      <c r="U9" s="32">
+        <v>1</v>
+      </c>
       <c r="V9" s="11">
         <v>0</v>
       </c>
@@ -928,15 +1073,29 @@
       <c r="Z9" s="17">
         <v>10</v>
       </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5" t="s">
+      <c r="AA9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="AK9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="32">
+        <v>1</v>
+      </c>
+      <c r="N10" s="32">
+        <v>1</v>
+      </c>
+      <c r="O10" s="32">
+        <v>1</v>
+      </c>
       <c r="P10" s="11">
         <v>0</v>
       </c>
@@ -970,13 +1129,29 @@
       <c r="Z10" s="26">
         <v>0</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-    </row>
-    <row r="11" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="AA10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="32">
+        <v>1</v>
+      </c>
+      <c r="N11" s="32">
+        <v>1</v>
+      </c>
+      <c r="O11" s="32">
+        <v>1</v>
+      </c>
       <c r="P11" s="7">
         <v>0</v>
       </c>
@@ -1010,13 +1185,23 @@
       <c r="Z11" s="26">
         <v>0</v>
       </c>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-    </row>
-    <row r="12" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="AA11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="32">
+        <v>1</v>
+      </c>
+      <c r="N12" s="32">
+        <v>1</v>
+      </c>
+      <c r="O12" s="32">
+        <v>1</v>
+      </c>
       <c r="P12" s="7">
         <v>0</v>
       </c>
@@ -1050,13 +1235,23 @@
       <c r="Z12" s="26">
         <v>0</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-    </row>
-    <row r="13" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="AA12" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="32">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>1</v>
+      </c>
+      <c r="O13" s="32">
+        <v>1</v>
+      </c>
       <c r="P13" s="7">
         <v>0</v>
       </c>
@@ -1090,13 +1285,23 @@
       <c r="Z13" s="10">
         <v>0</v>
       </c>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-    </row>
-    <row r="14" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="AA13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="32">
+        <v>1</v>
+      </c>
+      <c r="N14" s="32">
+        <v>1</v>
+      </c>
+      <c r="O14" s="32">
+        <v>1</v>
+      </c>
       <c r="P14" s="27">
         <v>10</v>
       </c>
@@ -1115,11 +1320,38 @@
       <c r="U14" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="V14" s="32">
+        <v>1</v>
+      </c>
+      <c r="W14" s="32">
+        <v>1</v>
+      </c>
+      <c r="X14" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="32">
+        <v>1</v>
+      </c>
+      <c r="N15" s="32">
+        <v>1</v>
+      </c>
+      <c r="O15" s="32">
+        <v>1</v>
+      </c>
       <c r="P15" s="21">
         <v>0</v>
       </c>
@@ -1156,16 +1388,23 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="5"/>
+      <c r="AB15" s="32">
+        <v>1</v>
+      </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" spans="1:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="32">
+        <v>1</v>
+      </c>
       <c r="N16" s="11">
         <v>0</v>
       </c>
@@ -1208,16 +1447,20 @@
       <c r="AA16" s="24">
         <v>10</v>
       </c>
-      <c r="AB16" s="5"/>
+      <c r="AB16" s="32">
+        <v>1</v>
+      </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" spans="7:31" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="32">
+        <v>1</v>
+      </c>
       <c r="N17" s="7">
         <v>0</v>
       </c>
@@ -1260,17 +1503,27 @@
       <c r="AA17" s="6">
         <v>0</v>
       </c>
-      <c r="AB17" s="5"/>
+      <c r="AB17" s="32">
+        <v>1</v>
+      </c>
       <c r="AC17" t="s">
         <v>14</v>
       </c>
       <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="7:31" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AL17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="32">
+        <v>1</v>
+      </c>
       <c r="N18" s="27">
         <v>10</v>
       </c>
@@ -1313,19 +1566,27 @@
       <c r="AA18" s="6">
         <v>0</v>
       </c>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
+      <c r="AB18" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-    </row>
-    <row r="19" spans="7:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
-        <v>15</v>
+      <c r="AL18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="32">
+        <v>1</v>
+      </c>
       <c r="N19" s="7">
         <v>0</v>
       </c>
@@ -1368,16 +1629,24 @@
       <c r="AA19" s="6">
         <v>0</v>
       </c>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+      <c r="AB19" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-    </row>
-    <row r="20" spans="7:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="32">
+        <v>1</v>
+      </c>
       <c r="N20" s="7">
         <v>0</v>
       </c>
@@ -1420,16 +1689,23 @@
       <c r="AA20" s="10">
         <v>0</v>
       </c>
-      <c r="AB20" s="5"/>
+      <c r="AB20" s="32">
+        <v>1</v>
+      </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" spans="7:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="32">
+        <v>1</v>
+      </c>
       <c r="N21" s="7">
         <v>0</v>
       </c>
@@ -1454,22 +1730,41 @@
       <c r="U21" s="33">
         <v>10</v>
       </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="V21" s="32">
+        <v>1</v>
+      </c>
+      <c r="W21" s="32">
+        <v>1</v>
+      </c>
+      <c r="X21" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="32">
+        <v>1</v>
+      </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="7:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="32">
+        <v>1</v>
+      </c>
       <c r="N22" s="7">
         <v>0</v>
       </c>
@@ -1494,22 +1789,41 @@
       <c r="U22" s="6">
         <v>0</v>
       </c>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+      <c r="V22" s="32">
+        <v>1</v>
+      </c>
+      <c r="W22" s="32">
+        <v>1</v>
+      </c>
+      <c r="X22" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="32">
+        <v>1</v>
+      </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" spans="7:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="32">
+        <v>1</v>
+      </c>
       <c r="N23" s="8">
         <v>0</v>
       </c>
@@ -1534,42 +1848,88 @@
       <c r="U23" s="10">
         <v>0</v>
       </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
+      <c r="V23" s="32">
+        <v>1</v>
+      </c>
+      <c r="W23" s="32">
+        <v>1</v>
+      </c>
+      <c r="X23" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="32">
+        <v>1</v>
+      </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="7:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
+      <c r="M24" s="32">
+        <v>1</v>
+      </c>
+      <c r="N24" s="32">
+        <v>1</v>
+      </c>
+      <c r="O24" s="32">
+        <v>1</v>
+      </c>
+      <c r="P24" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>1</v>
+      </c>
+      <c r="R24" s="32">
+        <v>1</v>
+      </c>
+      <c r="S24" s="32">
+        <v>1</v>
+      </c>
+      <c r="T24" s="32">
+        <v>1</v>
+      </c>
+      <c r="U24" s="32">
+        <v>1</v>
+      </c>
+      <c r="V24" s="32">
+        <v>1</v>
+      </c>
+      <c r="W24" s="32">
+        <v>1</v>
+      </c>
+      <c r="X24" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="32">
+        <v>1</v>
+      </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" spans="7:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1593,7 +1953,7 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" spans="7:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1615,7 +1975,7 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
     </row>
-    <row r="27" spans="7:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>

--- a/Documents/关卡设计.xlsx
+++ b/Documents/关卡设计.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noAsh\Desktop\自动推箱子模拟器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_workspace\AutoPushingBox\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51002E08-7524-4706-9892-DA0F07EF1BAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB934A59-7BB1-411A-AB72-E362C92372E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -830,11 +829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB662B7-9DE0-4300-BDD8-D6133AC8F253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
